--- a/biology/Zoologie/Alveopora/Alveopora.xlsx
+++ b/biology/Zoologie/Alveopora/Alveopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alveopora forme un genre de coraux de la famille des Poritidae selon ITIS[1] ou de la famille des Acroporidae selon WoRMS[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alveopora forme un genre de coraux de la famille des Poritidae selon ITIS ou de la famille des Acroporidae selon WoRMS.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces coraux possèdent des polypes très charnus, qu'ils gardent étendus pendant la journée. Ceux-ci peuvent se rétracter en cas de menace dans le squelette dur. 
 Attention toutefois, cette caractéristique est partagée par certains autres genres, comme Goniopora. On les distingue par le fait que les Goniopora ont 24 tentacules, contre 12 chez Alveopora. 
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Alveopora comprend les espèces suivantes :
 </t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
